--- a/Effetto Zeeman/results_Zeeman/ZeemanResolution.xlsx
+++ b/Effetto Zeeman/results_Zeeman/ZeemanResolution.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Desktop\LAB2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Desktop\LAB2020\spectroscopy-lab\Effetto Zeeman\results_Zeeman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3051C6A9-39BC-4D2C-B9AB-D8917CE9AD83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EACAE7-7F0D-4A1C-A1DA-28B16B0E70C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{0B1BD3D3-AE27-478C-A0B9-3C371525D548}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>dn/dlambda</t>
   </si>
@@ -64,13 +64,19 @@
   </si>
   <si>
     <t>*10^5</t>
+  </si>
+  <si>
+    <t>distanze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nm </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +91,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -107,9 +119,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -424,30 +437,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6091D82-EB8E-4833-8A58-C608595A4AB2}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="11.578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="30.26171875" customWidth="1"/>
+    <col min="5" max="5" width="11.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <f>-2.3*10^-9</f>
         <v>-2.2999999999999999E-9</v>
@@ -455,68 +470,418 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
-        <v>0.04</v>
+        <f>(585.3 *10^-9)^2/(2*3.47*10^-3)*10^9</f>
+        <v>4.9362548991354463E-2</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2">
+        <v>379.84979999999996</v>
+      </c>
+      <c r="B6">
+        <f>$A$3/A6</f>
+        <v>1.2995281027225621E-4</v>
+      </c>
+      <c r="C6">
+        <f>AVERAGE(B6:B21)</f>
+        <v>2.2272889869119441E-4</v>
+      </c>
+      <c r="E6">
+        <f>AVERAGE(A6:A21)</f>
+        <v>235.07418750000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2">
+        <v>340.95440000000008</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ref="B7:B21" si="0">$A$3/A7</f>
+        <v>1.4477756847060619E-4</v>
+      </c>
+      <c r="C7">
+        <f>_xlfn.STDEV.S(B6:B21)/SQRT(16)</f>
+        <v>1.3022201655245525E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2">
+        <v>301.71190000000024</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1.6360822689245741E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2">
+        <v>279.33640000000014</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>1.7671362912729754E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2">
+        <v>259.5639999999994</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>1.901748662809734E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2">
+        <v>245.54930000000058</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>2.0102907640687367E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2">
+        <v>234.61129999999957</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>2.1040141285332188E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2">
+        <v>222.55130000000008</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>2.2180301346860003E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2">
+        <v>212.13230000000021</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>2.3269699612625902E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2">
+        <v>204.25540000000001</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>2.4167071710884736E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2">
+        <v>195.78759999999966</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>2.5212295871318997E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2">
+        <v>191.17280000000028</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>2.5820906003026783E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2">
+        <v>182.83789999999954</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>2.6997985095734848E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2">
+        <v>177.92340000000058</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>2.7743708242622557E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="2">
+        <v>168.01999999999953</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>2.9378972141027616E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2">
+        <v>164.92920000000049</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>2.9929538851430985E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9">
-        <f>1*208.906/0.04</f>
-        <v>5222.6499999999996</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
+        <f>1*A6/$A$3</f>
+        <v>7695.1009978542279</v>
+      </c>
+      <c r="B28">
+        <f>A28*7*10^-6</f>
+        <v>5.386570698497959E-2</v>
+      </c>
+      <c r="D28" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" t="s">
+      <c r="F28">
+        <f>AVERAGE(B28:B43)</f>
+        <v>3.333537967798629E-2</v>
+      </c>
+      <c r="G28">
+        <f>_xlfn.STDEV.S(B28:B43)/SQRT(16)</f>
+        <v>2.2383493358618355E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
+        <f t="shared" ref="A29:A43" si="1">1*A7/$A$3</f>
+        <v>6907.1473610432085</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29:B43" si="2">A29*7*10^-6</f>
+        <v>4.835003152730246E-2</v>
+      </c>
+      <c r="D29" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
+      <c r="F29">
+        <f>F28/7/10^-6</f>
+        <v>4762.197096855185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
+        <f t="shared" si="1"/>
+        <v>6112.1620776277814</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="2"/>
+        <v>4.2785134543394464E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>5658.8730871439429</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="2"/>
+        <v>3.9612111610007598E-2</v>
+      </c>
+      <c r="J31" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16">
-        <f>1/0.04*A20*522.75</f>
-        <v>244777.6875</v>
-      </c>
-      <c r="B16">
-        <f>A16/100000</f>
-        <v>2.4477768750000002</v>
-      </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
+        <f t="shared" si="1"/>
+        <v>5258.3184074521841</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="2"/>
+        <v>3.6808228852165288E-2</v>
+      </c>
+      <c r="D32">
+        <f>AVERAGE(A28:A43)</f>
+        <v>4762.1970968551841</v>
+      </c>
+      <c r="J32">
+        <f>1/0.04*J36*522.75</f>
+        <v>244803.67435158495</v>
+      </c>
+      <c r="K32">
+        <f>J32/100000</f>
+        <v>2.4480367435158494</v>
+      </c>
+      <c r="L32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33">
+        <f t="shared" si="1"/>
+        <v>4974.4047869774104</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="2"/>
+        <v>3.4820833508841874E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34">
+        <f t="shared" si="1"/>
+        <v>4752.8197954503985</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="2"/>
+        <v>3.3269738568152789E-2</v>
+      </c>
+      <c r="D34" s="2">
+        <v>232.5865</v>
+      </c>
+      <c r="E34">
+        <f>A3*10^-9/(D34)</f>
+        <v>2.122330788388598E-13</v>
+      </c>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35">
+        <f t="shared" si="1"/>
+        <v>4508.5050214683715</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="2"/>
+        <v>3.1559535150278602E-2</v>
+      </c>
+      <c r="J35" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20">
-        <f>18.73</f>
-        <v>18.73</v>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36">
+        <f t="shared" si="1"/>
+        <v>4297.4340736973254</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="2"/>
+        <v>3.0082038515881277E-2</v>
+      </c>
+      <c r="J36">
+        <f>130*10^-3/2/3.47*10^3</f>
+        <v>18.731988472622476</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37">
+        <f t="shared" si="1"/>
+        <v>4137.8616820572624</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="2"/>
+        <v>2.8965031774400834E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38">
+        <f t="shared" si="1"/>
+        <v>3966.3186768230021</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="2"/>
+        <v>2.7764230737761016E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39">
+        <f t="shared" si="1"/>
+        <v>3872.8307979695901</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="2"/>
+        <v>2.710981558578713E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40">
+        <f t="shared" si="1"/>
+        <v>3703.9801172346761</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="2"/>
+        <v>2.5927860820642728E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41">
+        <f t="shared" si="1"/>
+        <v>3604.4208339233605</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="2"/>
+        <v>2.5230945837463523E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42">
+        <f t="shared" si="1"/>
+        <v>3403.7950517795821</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="2"/>
+        <v>2.3826565362457072E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43">
+        <f t="shared" si="1"/>
+        <v>3341.1807811806234</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="2"/>
+        <v>2.338826546826436E-2</v>
       </c>
     </row>
   </sheetData>
